--- a/QA/Test Cases.xlsx
+++ b/QA/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta_000\Desktop\BootcampGIT\Bootcamp-Releevant\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FC5FF3-C7B0-4976-A085-790BA73F722E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD903F1D-1632-4475-9866-73804C825812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C15DF6-0388-41CB-8A7C-9F127B6F3851}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
